--- a/evaluation/label.xlsx
+++ b/evaluation/label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10976\Desktop\tools_cmp\RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591EB06-2A0A-475D-BD2A-CCC13B55918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73916B50-D355-4B39-8C7B-B4B6FD4CC75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="P141" sqref="P141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -18591,7 +18591,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569">
         <v>0</v>
@@ -29143,6 +29143,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>